--- a/data/output_data/data_example.xlsx
+++ b/data/output_data/data_example.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,133 +434,120 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>input_text</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>input_text</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>output</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>xin chào</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>https://e-learning.hcmut.edu.vn/course/view.php?id=67808</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>kiemtraphanmem</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>ナム人</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>hello hello</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>xin#@$</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>xin chào</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
